--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\OneDrive - IBM\Desktop\Mentor\UdeG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D08E4-C780-4FEE-872C-20036D84F6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB76B4F-4A68-46F7-BD7F-ABCD009F7AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
   <sheets>
     <sheet name="Educonnect_BDD" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>17 de Octubre Pre-evaluacion</t>
   </si>
@@ -124,9 +124,6 @@
     <t>4 dias</t>
   </si>
   <si>
-    <t>15 de septiembre</t>
-  </si>
-  <si>
     <t>Gerardo</t>
   </si>
   <si>
@@ -170,6 +167,36 @@
   </si>
   <si>
     <t>Creacion pagina Registro</t>
+  </si>
+  <si>
+    <t>Creacion de Dashboard Usuario</t>
+  </si>
+  <si>
+    <t>creacion de dashboard admin</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>15 de sept</t>
+  </si>
+  <si>
+    <t>5 dias</t>
+  </si>
+  <si>
+    <t>17 de septiembre</t>
+  </si>
+  <si>
+    <t>Creacion token front/back</t>
+  </si>
+  <si>
+    <t>21 de septiembre</t>
+  </si>
+  <si>
+    <t>Local Juan done</t>
+  </si>
+  <si>
+    <t>Local Paul done</t>
   </si>
 </sst>
 </file>
@@ -185,12 +212,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -341,43 +374,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,11 +398,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -444,27 +488,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -805,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F17B0-DC23-491B-9BC7-3F032FE46973}">
   <dimension ref="E1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -816,64 +839,64 @@
   <sheetData>
     <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="5:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E7" s="2" t="s">
@@ -881,7 +904,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="2"/>
@@ -898,11 +921,11 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.6">
@@ -928,12 +951,12 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2"/>
@@ -955,17 +978,17 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="2"/>
@@ -982,13 +1005,13 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="3" t="s">
-        <v>37</v>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1001,20 +1024,20 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1029,7 +1052,7 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1044,7 +1067,7 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1059,7 +1082,7 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1074,7 +1097,7 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E16" s="3"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1089,7 +1112,7 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1104,7 +1127,7 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1119,7 +1142,7 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
@@ -1132,7 +1155,7 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E20" s="3"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="P20" s="2"/>
@@ -1164,11 +1187,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E2:Q3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P21:Q21"/>
@@ -1185,94 +1274,21 @@
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="E2:Q3"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
-  <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q17">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q17">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,75 +1299,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
   <dimension ref="E1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="18" max="18" width="12.44921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:20" x14ac:dyDescent="0.6">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="5" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="5:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="2" t="s">
@@ -1359,7 +1375,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="2"/>
@@ -1376,18 +1392,18 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="5:20" x14ac:dyDescent="0.6">
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1404,15 +1420,20 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="R8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="5:20" x14ac:dyDescent="0.6">
       <c r="E9" s="2" t="s">
@@ -1421,7 +1442,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -1433,7 +1454,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
@@ -1445,7 +1466,7 @@
     </row>
     <row r="10" spans="5:20" x14ac:dyDescent="0.6">
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1462,94 +1483,230 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="R10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="5:20" x14ac:dyDescent="0.6">
-      <c r="H11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="5:20" x14ac:dyDescent="0.6">
-      <c r="P12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="5:20" x14ac:dyDescent="0.6">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="5:20" x14ac:dyDescent="0.6">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="5:20" x14ac:dyDescent="0.6">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="5:20" x14ac:dyDescent="0.6">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.6">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.6">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.6">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.6">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.6">
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.6">
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="23" spans="5:17" x14ac:dyDescent="0.6">
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.6">
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.6">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.6">
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
+  <mergeCells count="77">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="E2:Q3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
@@ -1560,54 +1717,24 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="E2:Q3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q25">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:Q25">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
-  <dimension ref="E2:T28"/>
+  <dimension ref="E1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1627,96 +1754,125 @@
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="3" spans="5:20" x14ac:dyDescent="0.6">
-      <c r="E3" s="4" t="s">
+    <row r="1" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="5:20" x14ac:dyDescent="0.6">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="6" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="7" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E7" s="13" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="5" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="6" spans="5:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="5:20" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="5:20" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.6">
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
@@ -1726,22 +1882,24 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
@@ -1749,30 +1907,30 @@
     </row>
     <row r="10" spans="5:20" x14ac:dyDescent="0.6">
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
     </row>
     <row r="11" spans="5:20" x14ac:dyDescent="0.6">
       <c r="P11" s="2"/>
@@ -1842,70 +2000,69 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.6">
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
+  <mergeCells count="51">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="E2:Q3"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
   </mergeCells>
-  <conditionalFormatting sqref="P8:Q28">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P8)))</formula>
+  <conditionalFormatting sqref="P7:Q27">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q28">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",P8)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="In progress">
-      <formula>NOT(ISERROR(SEARCH("In progress",P8)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\OneDrive - IBM\Desktop\Mentor\UdeG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\Desktop\educonnect\EduConnect-Plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AA437-5795-4CF9-9602-18DD2B3CE7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AD379-40FC-4E49-A4AF-73D074F4FDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>17 de Octubre Pre-evaluacion</t>
   </si>
@@ -249,25 +249,22 @@
   </si>
   <si>
     <t>26 de septiembre</t>
+  </si>
+  <si>
+    <t>revisado local 26 de septiembre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -454,6 +451,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -475,16 +475,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,61 +929,61 @@
   <sheetData>
     <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="14"/>
@@ -997,7 +994,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1049,7 +1046,7 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
@@ -1076,12 +1073,12 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5"/>
@@ -1103,7 +1100,7 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="5"/>
@@ -1130,7 +1127,7 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1145,7 +1142,7 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1160,7 +1157,7 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1175,7 +1172,7 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1190,7 +1187,7 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1205,7 +1202,7 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1220,7 +1217,7 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E18" s="6"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1235,7 +1232,7 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E19" s="6"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="J19" s="5"/>
@@ -1248,7 +1245,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E20" s="6"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="P20" s="5"/>
@@ -1280,11 +1277,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E2:Q3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P21:Q21"/>
@@ -1301,77 +1364,11 @@
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="E2:Q3"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
@@ -1392,50 +1389,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
   <dimension ref="E1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="16" max="16" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44921875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
@@ -1474,7 +1471,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1493,10 +1490,10 @@
       <c r="P7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="16"/>
       <c r="S7" t="s">
         <v>33</v>
       </c>
@@ -1533,10 +1530,10 @@
       <c r="S8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="16"/>
+      <c r="U8" s="20"/>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E9" s="5" t="s">
@@ -1560,18 +1557,20 @@
         <v>30</v>
       </c>
       <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="Q9" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="20"/>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E10" s="5" t="s">
@@ -1595,18 +1594,20 @@
         <v>30</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="Q10" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E11" s="5" t="s">
@@ -1630,9 +1631,11 @@
         <v>45</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="Q11" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R11" s="5"/>
     </row>
@@ -1658,9 +1661,11 @@
         <v>45</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="Q12" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R12" s="5"/>
     </row>
@@ -1721,7 +1726,7 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="5:21" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="5"/>
@@ -1801,49 +1806,29 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="T10:U10"/>
@@ -1860,29 +1845,49 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R25">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
@@ -1904,50 +1909,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
   <dimension ref="E1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="16" max="16" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
@@ -1986,7 +1991,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -2042,6 +2047,9 @@
         <v>10</v>
       </c>
       <c r="R8" s="5"/>
+      <c r="S8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
@@ -2188,32 +2196,23 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="E6:G6"/>
@@ -2227,23 +2226,32 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R27">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\OneDrive - IBM\Desktop\Mentor\UdeG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AA437-5795-4CF9-9602-18DD2B3CE7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409D5AB-F19E-4A3D-AED5-3F48C252579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>17 de Octubre Pre-evaluacion</t>
   </si>
@@ -249,13 +249,16 @@
   </si>
   <si>
     <t>26 de septiembre</t>
+  </si>
+  <si>
+    <t>30 de septiembre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,14 +266,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,29 +457,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,7 +481,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -922,7 +925,7 @@
   <dimension ref="E1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:O13"/>
+      <selection activeCell="L9" sqref="L9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -932,64 +935,64 @@
   <sheetData>
     <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="5:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
@@ -997,7 +1000,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1049,7 +1052,7 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
@@ -1076,12 +1079,12 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5"/>
@@ -1103,7 +1106,7 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="5"/>
@@ -1130,7 +1133,7 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1145,7 +1148,7 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1160,7 +1163,7 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1175,7 +1178,7 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1190,7 +1193,7 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1205,7 +1208,7 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1220,7 +1223,7 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E18" s="6"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1235,7 +1238,7 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E19" s="6"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="J19" s="5"/>
@@ -1248,7 +1251,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E20" s="6"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="P20" s="5"/>
@@ -1280,11 +1283,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E2:Q3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P21:Q21"/>
@@ -1301,77 +1370,11 @@
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="E2:Q3"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
@@ -1393,80 +1396,80 @@
   <dimension ref="E1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:O15"/>
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="16" max="16" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44921875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="5:21" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
@@ -1474,7 +1477,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1493,10 +1496,10 @@
       <c r="P7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="10"/>
       <c r="S7" t="s">
         <v>33</v>
       </c>
@@ -1533,10 +1536,10 @@
       <c r="S8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="16"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E9" s="5" t="s">
@@ -1568,10 +1571,10 @@
       <c r="S9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="14"/>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E10" s="5" t="s">
@@ -1603,10 +1606,10 @@
       <c r="S10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E11" s="5" t="s">
@@ -1686,9 +1689,11 @@
         <v>59</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="Q13" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R13" s="5"/>
     </row>
@@ -1721,18 +1726,26 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="5:21" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1801,49 +1814,29 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="T10:U10"/>
@@ -1860,29 +1853,49 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R25">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
@@ -1904,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
   <dimension ref="E1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1916,69 +1929,69 @@
   <sheetData>
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="5:21" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
@@ -1986,7 +1999,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -2188,32 +2201,23 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="E6:G6"/>
@@ -2227,23 +2231,32 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R27">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\OneDrive - IBM\Desktop\Mentor\UdeG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409D5AB-F19E-4A3D-AED5-3F48C252579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F69FE9-4FBB-41AB-8CA9-CAAE05353323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>17 de Octubre Pre-evaluacion</t>
   </si>
@@ -252,16 +252,27 @@
   </si>
   <si>
     <t>30 de septiembre</t>
+  </si>
+  <si>
+    <t>Paul, Gera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,10 +452,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,32 +469,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,8 +490,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -935,64 +951,64 @@
   <sheetData>
     <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="5:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
@@ -1000,7 +1016,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1052,7 +1068,7 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
@@ -1079,12 +1095,12 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5"/>
@@ -1106,7 +1122,7 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="5"/>
@@ -1133,7 +1149,7 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1148,7 +1164,7 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1163,7 +1179,7 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1178,7 +1194,7 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1193,7 +1209,7 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1208,7 +1224,7 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1223,7 +1239,7 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1238,7 +1254,7 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="J19" s="5"/>
@@ -1251,7 +1267,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="P20" s="5"/>
@@ -1283,18 +1299,70 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="E2:Q3"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -1311,70 +1379,18 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
@@ -1395,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
   <dimension ref="E1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1407,69 +1423,69 @@
   <sheetData>
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="5:21" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
@@ -1477,7 +1493,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1496,10 +1512,10 @@
       <c r="P7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="R7" s="20"/>
       <c r="S7" t="s">
         <v>33</v>
       </c>
@@ -1536,10 +1552,10 @@
       <c r="S8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E9" s="5" t="s">
@@ -1571,10 +1587,10 @@
       <c r="S9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="14"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E10" s="5" t="s">
@@ -1606,10 +1622,10 @@
       <c r="S10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E11" s="5" t="s">
@@ -1668,13 +1684,13 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="5" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
@@ -1726,7 +1742,7 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="5:21" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="5"/>
@@ -1814,13 +1830,60 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E17:G17"/>
@@ -1837,65 +1900,18 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="L12:M12"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R25">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
@@ -1908,8 +1924,11 @@
       <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E13:G13" r:id="rId1" display="Actualizacion de Figma" xr:uid="{51C7E0C4-9657-43AB-95E9-FE5616C5677E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1918,7 +1937,7 @@
   <dimension ref="E1:U27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H8" sqref="H8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1929,69 +1948,69 @@
   <sheetData>
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="5:21" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
@@ -1999,7 +2018,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -2201,23 +2220,32 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="E6:G6"/>
@@ -2231,32 +2259,23 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R27">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\OneDrive - IBM\Desktop\Mentor\UdeG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F69FE9-4FBB-41AB-8CA9-CAAE05353323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727834E-60D1-4B15-B485-F3314862280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
   <sheets>
     <sheet name="Educonnect_BDD" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
-  <si>
-    <t>17 de Octubre Pre-evaluacion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>Tecnologia BDD</t>
   </si>
@@ -255,6 +252,60 @@
   </si>
   <si>
     <t>Paul, Gera</t>
+  </si>
+  <si>
+    <t>06 de Octubre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 de Octubre</t>
+  </si>
+  <si>
+    <t>6 de Octubre</t>
+  </si>
+  <si>
+    <t>7 de Noviembre Pre-evaluacion</t>
+  </si>
+  <si>
+    <t>Paul/Juan</t>
+  </si>
+  <si>
+    <t>3 de octubre</t>
+  </si>
+  <si>
+    <t>6 de octubre</t>
+  </si>
+  <si>
+    <t>Creacion Foros Alumnos</t>
+  </si>
+  <si>
+    <t>Investigacion tipo de AI</t>
+  </si>
+  <si>
+    <t>4 de octubre</t>
+  </si>
+  <si>
+    <t>10 de octubre</t>
+  </si>
+  <si>
+    <t>Local Paul/juan</t>
+  </si>
+  <si>
+    <t>Creacion pagina de Recursos</t>
+  </si>
+  <si>
+    <t>Creacion de pagina Configuracion</t>
+  </si>
+  <si>
+    <t>Pagina creacion de foros</t>
+  </si>
+  <si>
+    <t>Local Paul</t>
+  </si>
+  <si>
+    <t>Pagina detalle de foros</t>
+  </si>
+  <si>
+    <t>Validacion de Sesion</t>
   </si>
 </sst>
 </file>
@@ -941,7 +992,7 @@
   <dimension ref="E1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:M9"/>
+      <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -952,7 +1003,7 @@
     <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:18" x14ac:dyDescent="0.6">
       <c r="E2" s="7" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -965,7 +1016,8 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="E3" s="10"/>
@@ -980,171 +1032,172 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="E6" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="1"/>
       <c r="H6" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="5:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.6">
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
@@ -1299,6 +1352,7 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E2:R3"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
@@ -1363,7 +1417,6 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="E2:Q3"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
@@ -1411,12 +1464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
   <dimension ref="E1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="14.44921875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
@@ -1424,7 +1478,7 @@
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E2" s="7" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1459,377 +1513,592 @@
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="E6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="5:21" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="20"/>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" s="16"/>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="U9" s="16"/>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="16"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="Q11" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="Q12" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E13" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R14" s="5"/>
+      <c r="S14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="5:21" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.6">
+    <row r="17" spans="5:19" x14ac:dyDescent="0.6">
       <c r="E17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q18" s="5"/>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.6">
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E19" s="5"/>
+      <c r="S18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19" x14ac:dyDescent="0.6">
+      <c r="E19" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E20" s="5"/>
+    <row r="20" spans="5:19" x14ac:dyDescent="0.6">
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q21" s="5"/>
+    <row r="21" spans="5:19" x14ac:dyDescent="0.6">
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q22" s="5"/>
+    <row r="22" spans="5:19" x14ac:dyDescent="0.6">
+      <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q23" s="5"/>
+    <row r="23" spans="5:19" x14ac:dyDescent="0.6">
+      <c r="E23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.6">
+    <row r="24" spans="5:19" x14ac:dyDescent="0.6">
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.6">
+    <row r="25" spans="5:19" x14ac:dyDescent="0.6">
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="115">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
@@ -1912,6 +2181,10 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R25">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
@@ -1936,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
   <dimension ref="E1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:R8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1949,7 +2222,7 @@
     <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E2" s="7" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1984,94 +2257,94 @@
     <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="E6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="5:21" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R8" s="5"/>
       <c r="T8" s="5"/>
@@ -2079,29 +2352,29 @@
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R9" s="5"/>
       <c r="T9" s="5"/>
@@ -2109,50 +2382,98 @@
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.6">
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
@@ -2219,7 +2540,19 @@
       <c r="R27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="68">
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\Desktop\educonnect\EduConnect-Plus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmanuelVazquezPando\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AD379-40FC-4E49-A4AF-73D074F4FDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8191EF8-2276-4CEF-AF04-37E41BC09B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
   <sheets>
     <sheet name="Educonnect_BDD" sheetId="2" r:id="rId1"/>
     <sheet name="Frontend" sheetId="4" r:id="rId2"/>
-    <sheet name="Backend" sheetId="3" r:id="rId3"/>
+    <sheet name="Hallazgos" sheetId="5" r:id="rId3"/>
+    <sheet name="Backend" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,11 +65,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={24EE19A1-480D-4E03-BFB9-E925B728FE1B}</author>
+  </authors>
+  <commentList>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{24EE19A1-480D-4E03-BFB9-E925B728FE1B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Asignado original a Gerardo</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
-  <si>
-    <t>17 de Octubre Pre-evaluacion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
   <si>
     <t>Tecnologia BDD</t>
   </si>
@@ -251,14 +267,129 @@
     <t>26 de septiembre</t>
   </si>
   <si>
-    <t>revisado local 26 de septiembre</t>
+    <t>30 de septiembre</t>
+  </si>
+  <si>
+    <t>Paul, Gera</t>
+  </si>
+  <si>
+    <t>06 de Octubre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 de Octubre</t>
+  </si>
+  <si>
+    <t>6 de Octubre</t>
+  </si>
+  <si>
+    <t>7 de Noviembre Pre-evaluacion</t>
+  </si>
+  <si>
+    <t>Paul/Juan</t>
+  </si>
+  <si>
+    <t>3 de octubre</t>
+  </si>
+  <si>
+    <t>6 de octubre</t>
+  </si>
+  <si>
+    <t>Creacion Foros Alumnos</t>
+  </si>
+  <si>
+    <t>Investigacion tipo de AI</t>
+  </si>
+  <si>
+    <t>4 de octubre</t>
+  </si>
+  <si>
+    <t>10 de octubre</t>
+  </si>
+  <si>
+    <t>Local Paul/juan</t>
+  </si>
+  <si>
+    <t>Creacion pagina de Recursos</t>
+  </si>
+  <si>
+    <t>Creacion de pagina Configuracion</t>
+  </si>
+  <si>
+    <t>Pagina creacion de foros</t>
+  </si>
+  <si>
+    <t>Local Paul</t>
+  </si>
+  <si>
+    <t>Pagina detalle de foros</t>
+  </si>
+  <si>
+    <t>Validacion de Sesion</t>
+  </si>
+  <si>
+    <t>pagina de registro</t>
+  </si>
+  <si>
+    <t>juntar nombre y apellido</t>
+  </si>
+  <si>
+    <t>universidad</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>checar contraseña iguales</t>
+  </si>
+  <si>
+    <t>quitar fecha nacimiento</t>
+  </si>
+  <si>
+    <t>quitar numero</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>Hallazgo</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Campos mandatorios:
+- Nombre y Apellido
+- Usuario
+- Password
+-Institucion
+-Semestre
+-Tipo de usuario
+- Juntar Nombre y apellido en mismo campo
+-Remover Fecha nacimiento y Numero de contacto
+- Agregar Alias
+-Verificar password en API
+-Validacion de Password
+- Estandarizacion Password</t>
+  </si>
+  <si>
+    <t>Revisar envio de contraseña
+ por API (encriptacion)</t>
+  </si>
+  <si>
+    <t>Dashboard Usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,8 +397,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,10 +586,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,6 +600,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,24 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,11 +648,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -914,369 +1111,383 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J14" dT="2025-09-22T22:21:49.67" personId="{71AC8E8B-C05F-47A7-B23C-9EDE744F2FAD}" id="{24EE19A1-480D-4E03-BFB9-E925B728FE1B}">
+    <text>Asignado original a Gerardo</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F17B0-DC23-491B-9BC7-3F032FE46973}">
   <dimension ref="E1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:O13"/>
+      <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="18" max="18" width="9.94921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E2" s="8" t="s">
+    <row r="1" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="5" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="5:18" ht="37.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="6" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="5:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="5:18" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="7" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="7" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="5:18" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E19" s="7"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="E10:G10"/>
@@ -1289,11 +1500,6 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E2:Q3"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="N7:O7"/>
@@ -1301,10 +1507,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -1315,6 +1517,10 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
@@ -1341,6 +1547,7 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="P15:Q15"/>
@@ -1348,6 +1555,17 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P21:Q21"/>
@@ -1358,26 +1576,15 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1387,433 +1594,736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
-  <dimension ref="E1:U25"/>
+  <dimension ref="E1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="16" max="16" width="14.44921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="14.4140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="5:21" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="5"/>
+    <row r="7" spans="5:21" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="11"/>
       <c r="P7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="16"/>
       <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="5:21" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="Q20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E9" s="5" t="s">
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="5:21" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="Q23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="X25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="X26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="X27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X32" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E11:G11"/>
+  <mergeCells count="135">
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E13:G13"/>
@@ -1829,37 +2339,42 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="L12:M12"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="T7:U7"/>
@@ -1870,7 +2385,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q17:R17"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
@@ -1888,314 +2402,1154 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R25">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E13:G13" r:id="rId1" display="Actualizacion de Figma" xr:uid="{51C7E0C4-9657-43AB-95E9-FE5616C5677E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4D79C-45AF-4038-9CD8-F0489E19993A}">
+  <dimension ref="E1:T27"/>
+  <sheetViews>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="14.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="5:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E15" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" t="s">
+        <v>71</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E25" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" t="s">
+        <v>71</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="H7:I10"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="J7:K10"/>
+    <mergeCell ref="L3:M6"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="E11:G13"/>
+    <mergeCell ref="J3:K6"/>
+    <mergeCell ref="E3:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="E21:G23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="E7:G10"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S3:T27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",S3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E15:I15" r:id="rId1" display="Actualizacion de Figma" xr:uid="{BF2404CB-A160-4FC4-8067-24F2F5A1B94B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
   <dimension ref="E1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:O10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="16" max="16" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="5:21" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
+    <row r="7" spans="5:21" ht="39.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2" t="s">
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="Q11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="68">
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
@@ -2252,6 +3606,18 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R27">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107528781\OneDrive - IBM\Desktop\Mentor\UdeG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmanuelVazquezPando\Desktop\Mentor\UdeG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727834E-60D1-4B15-B485-F3314862280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3F356-B45B-490E-A606-E706E8D81127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
   <sheets>
     <sheet name="Educonnect_BDD" sheetId="2" r:id="rId1"/>
     <sheet name="Frontend" sheetId="4" r:id="rId2"/>
     <sheet name="Backend" sheetId="3" r:id="rId3"/>
+    <sheet name="Hallazgos" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,6 +43,7 @@
   <authors>
     <author>tc={C4884520-6839-4440-AE22-A4AACE6AA024}</author>
     <author>tc={A2C4EB65-3295-4FED-9A3F-33FC20D02E03}</author>
+    <author>Emmanuel Vazquez Pando</author>
   </authors>
   <commentList>
     <comment ref="H9" authorId="0" shapeId="0" xr:uid="{C4884520-6839-4440-AE22-A4AACE6AA024}">
@@ -60,12 +62,55 @@
     Asignado original a Gerardo</t>
       </text>
     </comment>
+    <comment ref="H20" authorId="2" shapeId="0" xr:uid="{B56DA508-EA3F-40E5-A27F-C9E84E03E516}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Emmanuel Vazquez Pando:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+originalmente de Gerardo, se paso a creacion de pantallas en figma
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={24EE19A1-480D-4E03-BFB9-E925B728FE1B}</author>
+  </authors>
+  <commentList>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{24EE19A1-480D-4E03-BFB9-E925B728FE1B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Asignado original a Gerardo</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="102">
   <si>
     <t>Tecnologia BDD</t>
   </si>
@@ -306,13 +351,95 @@
   </si>
   <si>
     <t>Validacion de Sesion</t>
+  </si>
+  <si>
+    <t>pagina de registro</t>
+  </si>
+  <si>
+    <t>juntar nombre y apellido</t>
+  </si>
+  <si>
+    <t>universidad</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>checar contraseña iguales</t>
+  </si>
+  <si>
+    <t>quitar fecha nacimiento</t>
+  </si>
+  <si>
+    <t>quitar numero</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>Hallazgo</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Campos mandatorios:
+- Nombre y Apellido
+- Usuario
+- Password
+-Institucion
+-Semestre
+-Tipo de usuario
+- Juntar Nombre y apellido en mismo campo
+-Remover Fecha nacimiento y Numero de contacto
+- Agregar Alias
+-Verificar password en API
+-Validacion de Password
+- Estandarizacion Password</t>
+  </si>
+  <si>
+    <t>Revisar envio de contraseña
+ por API (encriptacion)</t>
+  </si>
+  <si>
+    <t>Dashboard Usuario</t>
+  </si>
+  <si>
+    <t>Cursos Profesor</t>
+  </si>
+  <si>
+    <t>Foros Profesor</t>
+  </si>
+  <si>
+    <t>Foros alumno, refinamiento</t>
+  </si>
+  <si>
+    <t>Revisar botones Dashboard, recursos, foros (breadcrum)</t>
+  </si>
+  <si>
+    <t>Evaluaciones Profesor</t>
+  </si>
+  <si>
+    <t>Material Didactico Profesor</t>
+  </si>
+  <si>
+    <t>15 de octubre</t>
+  </si>
+  <si>
+    <t>20 de octubre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +451,26 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -518,10 +665,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,13 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -565,7 +719,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +736,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -987,368 +1192,376 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J14" dT="2025-09-22T22:21:49.67" personId="{71AC8E8B-C05F-47A7-B23C-9EDE744F2FAD}" id="{24EE19A1-480D-4E03-BFB9-E925B728FE1B}">
+    <text>Asignado original a Gerardo</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F17B0-DC23-491B-9BC7-3F032FE46973}">
   <dimension ref="E1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="18" max="18" width="9.94921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+    <row r="1" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="5" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="5:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="15" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="5" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="5:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="5:18" ht="37.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="9"/>
       <c r="R7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="5:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="6" t="s">
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="5:18" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E10" s="6" t="s">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="5:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="6" t="s">
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="5:18" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.6">
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.6">
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -1368,11 +1581,6 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
@@ -1381,11 +1589,16 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="J11:K11"/>
@@ -1407,13 +1620,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
@@ -1421,6 +1627,12 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="N7:O7"/>
@@ -1428,6 +1640,7 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="J6:K6"/>
@@ -1446,13 +1659,13 @@
     <mergeCell ref="E9:G9"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1462,620 +1675,810 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
-  <dimension ref="E1:U25"/>
+  <dimension ref="E1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:R21"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="14.44921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.4140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+    <row r="1" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="19" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="5:21" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="5:21" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="23"/>
       <c r="S7" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="16"/>
-    </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E9" s="5" t="s">
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="16"/>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E10" s="5" t="s">
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="16"/>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E11" s="5" t="s">
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E12" s="5" t="s">
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E13" s="21" t="s">
+      <c r="Q12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="9"/>
       <c r="S14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="5:21" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E15" s="6" t="s">
+    <row r="15" spans="5:21" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E16" s="5" t="s">
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E17" s="5" t="s">
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E18" s="5" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="Q18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="5"/>
+      <c r="O18" s="9"/>
+      <c r="P18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="9"/>
       <c r="S18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E19" s="5" t="s">
+    <row r="19" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="Q19" s="5" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="Q20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="5" t="s">
+      <c r="O22" s="9"/>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="Q23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="Q21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="Q24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="Q22" s="5" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="E23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="R25" s="9"/>
+      <c r="X25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O23" s="5"/>
-      <c r="Q23" s="5" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="5:19" x14ac:dyDescent="0.6">
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="Q28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="9"/>
+      <c r="X28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="X29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E31" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="X31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="X32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="24:24" x14ac:dyDescent="0.4">
+      <c r="X33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="24:24" x14ac:dyDescent="0.4">
+      <c r="X34" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="115">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
+  <mergeCells count="148">
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J22:K22"/>
@@ -2083,6 +2486,16 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E21:G21"/>
@@ -2099,6 +2512,15 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
@@ -2108,18 +2530,6 @@
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
@@ -2127,6 +2537,8 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E7:G7"/>
@@ -2142,6 +2554,11 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -2154,6 +2571,12 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="N28:O28"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E13:G13"/>
@@ -2169,39 +2592,67 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R25">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:R28">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",Q26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",Q26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",Q26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E13:G13" r:id="rId1" display="Actualizacion de Figma" xr:uid="{51C7E0C4-9657-43AB-95E9-FE5616C5677E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2209,335 +2660,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
   <dimension ref="E1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13:R13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="16" max="16" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E2" s="7" t="s">
+    <row r="1" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="5" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="5:21" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E6" s="19" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="5:21" ht="39.299999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="5:21" ht="39.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="9"/>
       <c r="S7" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="5" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="Q12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.6">
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.6">
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -2611,16 +3066,740 @@
     <mergeCell ref="N10:O10"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R27">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4D79C-45AF-4038-9CD8-F0489E19993A}">
+  <dimension ref="E1:T27"/>
+  <sheetViews>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="14.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="5:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" t="s">
+        <v>71</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" t="s">
+        <v>71</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E21:G23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="E11:G13"/>
+    <mergeCell ref="J3:K6"/>
+    <mergeCell ref="E3:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E7:G10"/>
+    <mergeCell ref="H7:I10"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="J7:K10"/>
+    <mergeCell ref="L3:M6"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="L13:M13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S3:T27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",S3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E15:I15" r:id="rId1" display="Actualizacion de Figma" xr:uid="{BF2404CB-A160-4FC4-8067-24F2F5A1B94B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmanuelVazquezPando\Desktop\Mentor\UdeG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3F356-B45B-490E-A606-E706E8D81127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E201362-9399-45E2-A26D-70A6CCBF8A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="104">
   <si>
     <t>Tecnologia BDD</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>20 de octubre</t>
+  </si>
+  <si>
+    <t>Implementacion AI</t>
+  </si>
+  <si>
+    <t>24 de octubre</t>
   </si>
 </sst>
 </file>
@@ -701,6 +707,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,44 +729,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1659,13 +1644,13 @@
     <mergeCell ref="E9:G9"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1677,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
   <dimension ref="E1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:G31"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1725,34 +1710,34 @@
     </row>
     <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="5:21" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="E7" s="9" t="s">
@@ -1779,10 +1764,10 @@
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="23"/>
+      <c r="R7" s="24"/>
       <c r="S7" t="s">
         <v>32</v>
       </c>
@@ -1821,10 +1806,10 @@
       <c r="S8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.4">
       <c r="E9" s="9" t="s">
@@ -1858,10 +1843,10 @@
       <c r="S9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="19"/>
+      <c r="U9" s="20"/>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.4">
       <c r="E10" s="9" t="s">
@@ -1895,10 +1880,10 @@
       <c r="S10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="19"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.4">
       <c r="E11" s="9" t="s">
@@ -1961,11 +1946,11 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="9" t="s">
         <v>60</v>
       </c>
@@ -2198,8 +2183,11 @@
         <v>71</v>
       </c>
       <c r="O20" s="9"/>
+      <c r="P20" t="s">
+        <v>103</v>
+      </c>
       <c r="Q20" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R20" s="9"/>
     </row>
@@ -2312,8 +2300,11 @@
         <v>101</v>
       </c>
       <c r="O24" s="9"/>
+      <c r="P24" t="s">
+        <v>103</v>
+      </c>
       <c r="Q24" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R24" s="9"/>
     </row>
@@ -2339,8 +2330,11 @@
         <v>101</v>
       </c>
       <c r="O25" s="9"/>
+      <c r="P25" t="s">
+        <v>103</v>
+      </c>
       <c r="Q25" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R25" s="9"/>
       <c r="X25" t="s">
@@ -2369,8 +2363,11 @@
         <v>101</v>
       </c>
       <c r="O26" s="9"/>
+      <c r="P26" t="s">
+        <v>103</v>
+      </c>
       <c r="Q26" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R26" s="9"/>
     </row>
@@ -2396,8 +2393,11 @@
         <v>101</v>
       </c>
       <c r="O27" s="9"/>
+      <c r="P27" t="s">
+        <v>103</v>
+      </c>
       <c r="Q27" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R27" s="9"/>
     </row>
@@ -2423,8 +2423,11 @@
         <v>101</v>
       </c>
       <c r="O28" s="9"/>
+      <c r="P28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q28" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R28" s="9"/>
       <c r="X28" t="s">
@@ -2432,14 +2435,31 @@
       </c>
     </row>
     <row r="29" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="H29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="N29" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="O29" s="9"/>
+      <c r="Q29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="9"/>
       <c r="X29" t="s">
         <v>81</v>
       </c>
@@ -2450,11 +2470,11 @@
       </c>
     </row>
     <row r="31" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="X31" t="s">
         <v>83</v>
       </c>
@@ -2475,7 +2495,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="150">
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q28:R28"/>
@@ -2486,16 +2509,7 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E21:G21"/>
@@ -2544,6 +2558,12 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="N8:O8"/>
@@ -2554,8 +2574,10 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="L15:M15"/>
@@ -2576,24 +2598,6 @@
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="N13:O13"/>
@@ -2609,6 +2613,16 @@
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="Q29:R29"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="J24:K24"/>
@@ -2624,27 +2638,24 @@
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N25:O25"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q7:R25">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Block">
+  <conditionalFormatting sqref="Q7:R29">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:R28">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",Q26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In progress">
-      <formula>NOT(ISERROR(SEARCH("In progress",Q26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",Q26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2661,7 +2672,7 @@
   <dimension ref="E1:U27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+      <selection activeCell="E13" sqref="E13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2707,34 +2718,34 @@
     </row>
     <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="5:21" ht="39.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="E7" s="9" t="s">
@@ -2918,18 +2929,30 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="O13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="5:21" x14ac:dyDescent="0.4">
@@ -3066,13 +3089,13 @@
     <mergeCell ref="N10:O10"/>
   </mergeCells>
   <conditionalFormatting sqref="Q7:R27">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3096,38 +3119,38 @@
   <sheetData>
     <row r="1" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="21"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="5:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="E3" s="25" t="s">
@@ -3135,14 +3158,14 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
@@ -3699,6 +3722,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L3:M6"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -3706,6 +3730,7 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
@@ -3781,18 +3806,16 @@
     <mergeCell ref="H7:I10"/>
     <mergeCell ref="H3:I6"/>
     <mergeCell ref="J7:K10"/>
-    <mergeCell ref="L3:M6"/>
     <mergeCell ref="H11:I13"/>
-    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:T27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",S3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Seguimiento_Educonnect.xlsx
+++ b/Seguimiento_Educonnect.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmanuelVazquezPando\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresr/Documents/Repos/otros/EduConnect-Plus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8191EF8-2276-4CEF-AF04-37E41BC09B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40551D9-EA68-1848-9656-33ACA93B421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
+    <workbookView xWindow="-1980" yWindow="-27160" windowWidth="25820" windowHeight="19200" activeTab="1" xr2:uid="{A272079C-0484-2D4A-AB79-7E054B41BA35}"/>
   </bookViews>
   <sheets>
     <sheet name="Educonnect_BDD" sheetId="2" r:id="rId1"/>
     <sheet name="Frontend" sheetId="4" r:id="rId2"/>
     <sheet name="Hallazgos" sheetId="5" r:id="rId3"/>
     <sheet name="Backend" sheetId="3" r:id="rId4"/>
+    <sheet name="Casos de prueba" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,17 +48,17 @@
   <commentList>
     <comment ref="H9" authorId="0" shapeId="0" xr:uid="{C4884520-6839-4440-AE22-A4AACE6AA024}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Asignado a Gerardo originalmente</t>
       </text>
     </comment>
     <comment ref="H12" authorId="1" shapeId="0" xr:uid="{A2C4EB65-3295-4FED-9A3F-33FC20D02E03}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Asignado original a Gerardo</t>
       </text>
     </comment>
@@ -73,9 +74,9 @@
   <commentList>
     <comment ref="J14" authorId="0" shapeId="0" xr:uid="{24EE19A1-480D-4E03-BFB9-E925B728FE1B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Asignado original a Gerardo</t>
       </text>
     </comment>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="150">
   <si>
     <t>Tecnologia BDD</t>
   </si>
@@ -384,12 +385,180 @@
   <si>
     <t>Dashboard Usuario</t>
   </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Alta de usuario como profesor</t>
+  </si>
+  <si>
+    <t>Profesor Registrado</t>
+  </si>
+  <si>
+    <t>Alta de materia como profesor</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>Inscripcion con un profesor</t>
+  </si>
+  <si>
+    <t>Modificar datos de usuario</t>
+  </si>
+  <si>
+    <t>Evaluar tarea</t>
+  </si>
+  <si>
+    <t>Comentar en Foro de profesor</t>
+  </si>
+  <si>
+    <t>Abrir foro de alumno</t>
+  </si>
+  <si>
+    <t>Abrir foro como profesor</t>
+  </si>
+  <si>
+    <t>Subir Archivo como profesor</t>
+  </si>
+  <si>
+    <t>Alta de usuario como alumno</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>Subir tarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar tarea </t>
+  </si>
+  <si>
+    <t>Subir Cuestionario</t>
+  </si>
+  <si>
+    <t>Evalua Cuestionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contesta Cuestionario </t>
+  </si>
+  <si>
+    <t>Alumno2</t>
+  </si>
+  <si>
+    <t>Comenta foro de alumno</t>
+  </si>
+  <si>
+    <t>Cierra grupo</t>
+  </si>
+  <si>
+    <t>Abrir grupo</t>
+  </si>
+  <si>
+    <t>baja de usuario</t>
+  </si>
+  <si>
+    <t>Profesor2</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>baja de usuario pero Tiene grupos abiertos</t>
+  </si>
+  <si>
+    <t>Publicar  foro</t>
+  </si>
+  <si>
+    <t>Comentar foro</t>
+  </si>
+  <si>
+    <t>Autorizar recurso</t>
+  </si>
+  <si>
+    <t>Baja de profesor2 con grupos abiertos</t>
+  </si>
+  <si>
+    <t>Baja de usuario</t>
+  </si>
+  <si>
+    <t>Exitoso</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Implementar AI Foro de Alumnos Chat</t>
+  </si>
+  <si>
+    <t>Implementar AI Foro de Admin Chat</t>
+  </si>
+  <si>
+    <t>Implementar AI en comentarios Admin, Profesor y Alumno</t>
+  </si>
+  <si>
+    <t>2 días</t>
+  </si>
+  <si>
+    <t>25 de Octubre</t>
+  </si>
+  <si>
+    <t>30 de octubre</t>
+  </si>
+  <si>
+    <t>31 de octubre</t>
+  </si>
+  <si>
+    <t>Implementar AI Foro de profesor Chat</t>
+  </si>
+  <si>
+    <t>31  de Octubre</t>
+  </si>
+  <si>
+    <t>6 días</t>
+  </si>
+  <si>
+    <t>1 de noviembre</t>
+  </si>
+  <si>
+    <t>2 de noviembre</t>
+  </si>
+  <si>
+    <t>3 de noviembre</t>
+  </si>
+  <si>
+    <t>3 días</t>
+  </si>
+  <si>
+    <t>5  de noviembre</t>
+  </si>
+  <si>
+    <t>Ingresar con un usuario no registrado</t>
+  </si>
+  <si>
+    <t>No se permite el login</t>
+  </si>
+  <si>
+    <t>Cualquier usuario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,12 +573,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -590,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -600,6 +763,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,22 +800,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,38 +815,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -786,7 +963,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1123,367 +1300,443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F17B0-DC23-491B-9BC7-3F032FE46973}">
   <dimension ref="E1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="5:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="5" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="5:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="15" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="5:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="5" spans="5:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="5:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="5:18" ht="37.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="11" t="s">
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="5:18" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="9"/>
       <c r="R7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E8" s="11" t="s">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="5:18" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="13" t="s">
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="5:18" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="5:18" ht="30.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="13" t="s">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="5:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="5:18" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="13" t="s">
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E14" s="13"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E20" s="13"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="J6:K6"/>
@@ -1500,91 +1753,15 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:Q17">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1596,733 +1773,848 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B75016-4648-445C-9975-EBA8C90B0F4D}">
   <dimension ref="E1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="19" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="5" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="5:21" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="11" t="s">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="5:21" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="16"/>
+      <c r="R7" s="23"/>
       <c r="S7" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E8" s="11" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E9" s="11" t="s">
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="11"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E10" s="11" t="s">
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="11"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E11" s="11" t="s">
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="11"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E12" s="11" t="s">
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="11"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E13" s="21" t="s">
+      <c r="Q12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="11"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E14" s="11" t="s">
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="11"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="11"/>
+      <c r="R14" s="9"/>
       <c r="S14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="5:21" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="13" t="s">
+    <row r="15" spans="5:21" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="11"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E16" s="11" t="s">
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="11"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E17" s="11" t="s">
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="11"/>
+      <c r="O17" s="9"/>
       <c r="P17" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E18" s="11" t="s">
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="11"/>
+      <c r="O18" s="9"/>
       <c r="P18" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="9"/>
       <c r="S18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E19" s="11" t="s">
+    <row r="19" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="11"/>
+      <c r="O19" s="9"/>
       <c r="P19" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E20" s="11" t="s">
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="Q20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E21" s="11" t="s">
+      <c r="O20" s="9"/>
+      <c r="Q20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="11"/>
+      <c r="O21" s="9"/>
       <c r="P21" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E22" s="11" t="s">
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11" t="s">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="11"/>
+      <c r="O22" s="9"/>
       <c r="P22" t="s">
         <v>71</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E23" s="11" t="s">
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11" t="s">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="Q23" s="11" t="s">
+      <c r="O23" s="9"/>
+      <c r="Q23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="Q24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="9"/>
       <c r="X25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="9"/>
       <c r="X26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="9"/>
       <c r="X27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:24" x14ac:dyDescent="0.2">
       <c r="X28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:24" x14ac:dyDescent="0.2">
       <c r="X29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:24" x14ac:dyDescent="0.2">
       <c r="X30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="5:24" x14ac:dyDescent="0.2">
       <c r="X31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:24" x14ac:dyDescent="0.2">
       <c r="X32" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N25:O25"/>
+  <mergeCells count="136">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E17:G17"/>
@@ -2347,103 +2639,50 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N25:O25"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q7:R25">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
+  <conditionalFormatting sqref="Q7:R23">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",Q7)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:R27">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",Q24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",Q24)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",Q7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",Q24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2458,89 +2697,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4D79C-45AF-4038-9CD8-F0489E19993A}">
   <dimension ref="E1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="5:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="19" t="s">
+    <row r="1" spans="5:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="20"/>
       <c r="R2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="5:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="24" t="s">
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="5:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="11" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2549,16 +2788,16 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2567,16 +2806,16 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+    <row r="6" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2585,44 +2824,44 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="26" t="s">
         <v>90</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2633,14 +2872,14 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="5:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2651,14 +2890,14 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="5:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2669,14 +2908,14 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E11" s="11" t="s">
+    <row r="11" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2689,12 +2928,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+    <row r="12" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2707,260 +2946,240 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+    <row r="13" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11" t="s">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E14" s="11" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11" t="s">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E15" s="29" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11" t="s">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E16" s="11" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11" t="s">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="27" t="s">
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="5:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E18" s="22" t="s">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11" t="s">
+      <c r="O18" s="9"/>
+      <c r="P18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E19" s="22" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="9"/>
       <c r="R19" t="s">
         <v>71</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E20" s="22" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="9"/>
       <c r="R20" t="s">
         <v>71</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E21" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11" t="s">
+      <c r="O21" s="9"/>
+      <c r="P21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="9"/>
       <c r="R21" t="s">
         <v>71</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-    </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2972,12 +3191,12 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2989,199 +3208,102 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E24" s="22" t="s">
+    <row r="24" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11" t="s">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11" t="s">
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E25" s="22" t="s">
+      <c r="Q24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11" t="s">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11" t="s">
+      <c r="O25" s="9"/>
+      <c r="P25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="9"/>
       <c r="R25" t="s">
         <v>71</v>
       </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E26" s="22" t="s">
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11" t="s">
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11" t="s">
+      <c r="O26" s="9"/>
+      <c r="P26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q26" s="11"/>
+      <c r="Q26" s="9"/>
       <c r="R26" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E27" s="11" t="s">
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11" t="s">
+      <c r="O27" s="9"/>
+      <c r="P27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="Q27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="H7:I10"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="J7:K10"/>
-    <mergeCell ref="L3:M6"/>
-    <mergeCell ref="H11:I13"/>
-    <mergeCell ref="E11:G13"/>
-    <mergeCell ref="J3:K6"/>
-    <mergeCell ref="E3:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="E21:G23"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="E7:G10"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="S3:T3"/>
@@ -3190,6 +3312,91 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E21:G23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="E11:G13"/>
+    <mergeCell ref="J3:K6"/>
+    <mergeCell ref="E3:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E7:G10"/>
+    <mergeCell ref="H7:I10"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="J7:K10"/>
+    <mergeCell ref="L3:M6"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:T27">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Block">
@@ -3212,361 +3419,334 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD5718-C505-44B9-9DFB-8A8547D94BFD}">
-  <dimension ref="E1:U27"/>
+  <dimension ref="E1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C13" sqref="A13:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="5" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="19" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="5" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="5:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="5:21" ht="39.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="11" t="s">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="5:21" ht="39.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="9"/>
       <c r="S7" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E8" s="11" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E9" s="11" t="s">
+      <c r="R8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="11"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E10" s="11" t="s">
+      <c r="R9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="11"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="Q12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="Q11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.4">
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.4">
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+  <mergeCells count="56">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="E6:G6"/>
@@ -3580,46 +3760,25 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q7:R27">
+  <conditionalFormatting sqref="Q7:R22">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",Q7)))</formula>
     </cfRule>
@@ -3632,4 +3791,349 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC30220-0754-3446-9B64-9A725E1AB6B1}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>